--- a/Documentation/Project Management/Scoring Matrix.xlsx
+++ b/Documentation/Project Management/Scoring Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu.sharepoint.com/sites/Course_43019_design_in_mechanical_and_mechatronic_-4fVJuN6RM5oxU-P29-AutonomousSteeri/Shared Documents/T21 - P29 - Autonomous Steering Mechanism/Week 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu.sharepoint.com/sites/Course_43019_design_in_mechanical_and_mechatronic_-4fVJuN6RM5oxU-P29-AutonomousSteeri/Shared Documents/T21 - P29 - Autonomous Steering Mechanism/Handover/Documentation/Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{0516CC83-1314-42DF-AAE6-538CF0BA0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748B211E-9979-42AE-8314-87FA70EB5DAD}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{0516CC83-1314-42DF-AAE6-538CF0BA0162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE366504-1644-480D-AD06-C8695B12F4C7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{23EB5D5E-CD4D-41CD-A45B-E333F318E5EF}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{23EB5D5E-CD4D-41CD-A45B-E333F318E5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring Matrix" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>Delivering the calculated amount of torque without any compromise to the motor.</t>
   </si>
   <si>
-    <t>BLDC motor controlled by a rotary potentiometer (being positioned directly on the steering column). It would be situated at the top of the steering column, among the u-joints. They would be driven by a linear actuator. In the case of disengagement, there would be an idle gear for the actuator to attach to once the motor has been powered down.</t>
-  </si>
-  <si>
     <t>A stepper motor controlled using a mechanical rotatry encoder. It would be situated towards the end of the steering column close to the rack &amp; pinion, linked by a set of gear and pulley, driven by a belt. There is no disengagement mechanism required.</t>
   </si>
   <si>
@@ -213,7 +210,10 @@
     <t>Ease of using current design to be used in future iterations.</t>
   </si>
   <si>
-    <t>Brushed DC controlled using magentic rotary encoder (being positioned directly at the end of the motor shaft). It would be situated at the bottom of the floor, driven by a set of gears. In case of the disengagement mechanism that would be controlled by the motor as it is back driveable.</t>
+    <t>BRUSHED motor controlled by a rotary potentiometer (being positioned directly on the steering column). It would be situated at the top of the steering column, among the u-joints. They would be driven by a linear actuator. In the case of disengagement, there would be an idle gear for the actuator to attach to once the motor has been powered down.</t>
+  </si>
+  <si>
+    <t>BLDC controlled using magentic rotary encoder (being positioned directly at the end of the motor shaft). It would be situated at the bottom of the floor, driven by a set of gears. In case of the disengagement mechanism that would be controlled by the motor as it is back driveable.</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FCC2F-3519-4D65-9CA5-67088D5E63A7}">
   <dimension ref="A3:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="22">
         <v>4</v>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="22">
         <v>4</v>
@@ -1402,15 +1402,15 @@
         <v>18</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA2CB9-3A66-40B9-ABE8-CFE0B3C37AB9}">
   <dimension ref="A4:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="42" t="s">
@@ -1847,18 +1847,18 @@
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="34" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F7" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1878,6 +1878,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdbf55cf-10f0-49fa-a617-5a903818246b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD9EDA646FF47745A6EE457436789FF5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b76eae9aa6904517c9fa58b81db482">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdbf55cf-10f0-49fa-a617-5a903818246b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007becb5391e6d00c76f4a70b2d80428" ns2:_="">
     <xsd:import namespace="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
@@ -2067,49 +2086,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fdbf55cf-10f0-49fa-a617-5a903818246b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76E4F3-0E8F-4204-B777-BC78D9A58B4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2D0E1F-568E-47E5-9DD3-961B55787FB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A64BC36-EE76-40D2-B4C5-D72E3FE3B6D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE2D0E1F-568E-47E5-9DD3-961B55787FB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE76E4F3-0E8F-4204-B777-BC78D9A58B4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fdbf55cf-10f0-49fa-a617-5a903818246b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>